--- a/hasil.xlsx
+++ b/hasil.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_apps\apps_muthia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEF04C7-5733-4984-B9BA-BF4690F07A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="10260" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -346,14 +352,14 @@
     <t>Tidak Lolos</t>
   </si>
   <si>
-    <t>Tidak Terdeteksi</t>
+    <t>Lolos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,13 +422,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -460,7 +474,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -494,6 +508,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -528,9 +543,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -703,14 +719,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,7 +752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -744,7 +769,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -761,7 +786,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -778,7 +803,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -792,10 +817,10 @@
         <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -809,10 +834,10 @@
         <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -826,10 +851,10 @@
         <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -843,10 +868,10 @@
         <v>106</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -860,10 +885,10 @@
         <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -880,7 +905,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -897,7 +922,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -911,10 +936,10 @@
         <v>107</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -931,7 +956,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -945,10 +970,10 @@
         <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -962,10 +987,10 @@
         <v>106</v>
       </c>
       <c r="E15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -979,10 +1004,10 @@
         <v>106</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -999,7 +1024,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1013,10 +1038,10 @@
         <v>107</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1030,10 +1055,10 @@
         <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1047,10 +1072,10 @@
         <v>106</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1064,10 +1089,10 @@
         <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1084,7 +1109,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1098,10 +1123,10 @@
         <v>107</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1118,7 +1143,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1135,7 +1160,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1152,7 +1177,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1169,7 +1194,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1183,10 +1208,10 @@
         <v>106</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1200,10 +1225,10 @@
         <v>106</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1217,10 +1242,10 @@
         <v>107</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1237,7 +1262,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1251,10 +1276,10 @@
         <v>108</v>
       </c>
       <c r="E32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1271,7 +1296,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1288,7 +1313,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1305,7 +1330,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1322,7 +1347,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1339,7 +1364,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1353,10 +1378,10 @@
         <v>106</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1370,10 +1395,10 @@
         <v>108</v>
       </c>
       <c r="E39" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1387,10 +1412,10 @@
         <v>106</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1407,7 +1432,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1421,10 +1446,10 @@
         <v>107</v>
       </c>
       <c r="E42" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1441,7 +1466,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1458,7 +1483,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1475,7 +1500,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1492,7 +1517,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -1509,7 +1534,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -1526,7 +1551,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -1540,10 +1565,10 @@
         <v>107</v>
       </c>
       <c r="E49" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1557,10 +1582,10 @@
         <v>108</v>
       </c>
       <c r="E50" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -1577,7 +1602,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -1591,10 +1616,10 @@
         <v>106</v>
       </c>
       <c r="E52" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -1611,7 +1636,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -1625,10 +1650,10 @@
         <v>106</v>
       </c>
       <c r="E54" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -1642,10 +1667,10 @@
         <v>106</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -1659,10 +1684,10 @@
         <v>106</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -1679,7 +1704,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -1693,10 +1718,10 @@
         <v>107</v>
       </c>
       <c r="E58" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -1710,10 +1735,10 @@
         <v>106</v>
       </c>
       <c r="E59" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -1727,10 +1752,10 @@
         <v>108</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -1744,10 +1769,10 @@
         <v>108</v>
       </c>
       <c r="E61" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -1761,10 +1786,10 @@
         <v>107</v>
       </c>
       <c r="E62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -1778,10 +1803,10 @@
         <v>106</v>
       </c>
       <c r="E63" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -1795,10 +1820,10 @@
         <v>106</v>
       </c>
       <c r="E64" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -1815,7 +1840,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -1832,7 +1857,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -1846,10 +1871,10 @@
         <v>106</v>
       </c>
       <c r="E67" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -1866,7 +1891,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -1883,7 +1908,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -1900,7 +1925,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -1914,10 +1939,10 @@
         <v>108</v>
       </c>
       <c r="E71" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -1931,10 +1956,10 @@
         <v>106</v>
       </c>
       <c r="E72" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -1948,10 +1973,10 @@
         <v>106</v>
       </c>
       <c r="E73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -1968,7 +1993,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -1985,7 +2010,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -1999,10 +2024,10 @@
         <v>106</v>
       </c>
       <c r="E76" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -2016,10 +2041,10 @@
         <v>106</v>
       </c>
       <c r="E77" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -2033,10 +2058,10 @@
         <v>106</v>
       </c>
       <c r="E78" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -2053,7 +2078,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -2070,7 +2095,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -2084,10 +2109,10 @@
         <v>106</v>
       </c>
       <c r="E81" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -2101,10 +2126,10 @@
         <v>106</v>
       </c>
       <c r="E82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -2118,10 +2143,10 @@
         <v>106</v>
       </c>
       <c r="E83" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -2135,10 +2160,10 @@
         <v>107</v>
       </c>
       <c r="E84" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -2152,10 +2177,10 @@
         <v>106</v>
       </c>
       <c r="E85" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -2172,7 +2197,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -2189,7 +2214,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -2203,10 +2228,10 @@
         <v>107</v>
       </c>
       <c r="E88" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -2220,10 +2245,10 @@
         <v>108</v>
       </c>
       <c r="E89" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>93</v>
       </c>
@@ -2240,7 +2265,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>94</v>
       </c>
@@ -2254,10 +2279,10 @@
         <v>108</v>
       </c>
       <c r="E91" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -2271,10 +2296,10 @@
         <v>108</v>
       </c>
       <c r="E92" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -2291,7 +2316,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>97</v>
       </c>
@@ -2305,10 +2330,10 @@
         <v>108</v>
       </c>
       <c r="E94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -2325,7 +2350,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>99</v>
       </c>
@@ -2342,7 +2367,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>100</v>
       </c>
@@ -2356,10 +2381,10 @@
         <v>108</v>
       </c>
       <c r="E97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>101</v>
       </c>
@@ -2376,7 +2401,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>102</v>
       </c>
@@ -2393,7 +2418,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>103</v>
       </c>
@@ -2407,10 +2432,10 @@
         <v>108</v>
       </c>
       <c r="E100" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>104</v>
       </c>
@@ -2424,7 +2449,7 @@
         <v>107</v>
       </c>
       <c r="E101" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
